--- a/outputs/BAGHA3.xlsx
+++ b/outputs/BAGHA3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
-Why: ABI's goal is to submit a paper to ASE 2019, and understanding what the conference is about is an essential step towards that goal. This information will help ABI align her submission with the conference's theme and requirements. Additionally, ABI's comprehensive information processing style means she would want to gather all relevant information before proceeding. Understanding the conference helps mitigate any risks associated with submitting an irrelevant or misaligned paper.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to submit a paper to ASE 2019, and understanding what the conference is about is a crucial step in this process. Abi's comprehensive information processing style means they would want to gather all relevant information about the conference to ensure it aligns with their goals and the content of their paper.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 6. None of the Above
-Why: The action to accept cookies is a standard and familiar task on many websites. The prompt at the bottom of the screen is clear and provides a straightforward "Accept &amp; Close" button, making it easy for ABI to take this action without confusion. This action does not require any special technical knowledge or involve risk, and it is not directly related to ABI's goals but is necessary for a smoother browsing experience.</t>
+Why: The cookie consent banner is a common feature on many websites, and the "Accept &amp; Close" button is clearly labeled and located at the bottom of the screen. Abi will likely recognize this as a standard action to proceed with browsing the website. This action does not require any specific technical knowledge or confidence in computing tasks.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After accepting the cookies, ABI will remain on the same page and be able to read the detailed information about the ASE 2019 conference. The page contains comprehensive information about the conference, including keynotes, distinguished papers, and the overall purpose of the conference. This aligns with ABI's motivation to learn about the conference and her comprehensive information processing style, ensuring she feels she is making progress toward her goal.</t>
+Why: After accepting the cookie, Abi will be able to see the full content of the ASE 2019 homepage. The page provides comprehensive information about the conference, including keynotes, distinguished papers, and details about the conference itself. This aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. Abi will know they are making progress toward their goal of submitting a paper by gathering all the necessary information about the conference.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is designed in a way that encourages scrolling for more information. ABI, with her comprehensive information processing style, is likely to scroll down to gather more details about the conference. The layout and structure of the page provide clear visual cues that more information is available below, making it intuitive for ABI to scroll down to find relevant content.</t>
+Why: Scrolling down to see more information is a natural action for someone with a comprehensive information processing style like Abi. The page layout suggests that there is more content below the visible area, and scrolling is a common way to access additional information. Abi will likely recognize this and take the action to gather more details about the conference.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down, ABI will find detailed information about ASE 2019, including keynotes, distinguished papers, and the conference's purpose. This information is comprehensive and relevant, ensuring ABI knows she's making progress toward her goal of understanding the conference. The detailed content aligns with ABI's motivation to gather necessary information and her comprehensive information processing style, making her confident that she is on the right track.</t>
+Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, and an overview of the conference. This aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. The page provides a clear and thorough description, helping Abi feel confident that they are making progress toward their goal of submitting a paper.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy, 5. Learning Style
-Why: While the "Research Papers" link in the ASE 2019 Tracks box is visible, there is no explicit information or instruction on the page indicating what will happen after clicking it. ABI, being risk-averse and having low computer self-efficacy, may hesitate to click on a link without clear information about where it will lead or what it will do. Additionally, ABI prefers process-oriented learning and may not feel confident exploring this option without more guidance. Therefore, the page is not sufficiently informative to ensure that ABI will take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: While the "Research Papers" link is visible in the ASE 2019 Tracks box, Abi might not be confident in clicking it without more explicit guidance or information about what to expect after clicking. Abi's low computer self-efficacy and preference for process-oriented learning mean they might hesitate to click on links without clear instructions or context. The page does not provide enough immediate information about what will happen after clicking the link, which could deter Abi from taking this action.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Research Papers" link, ABI lands on a page listing numerous names without clear, detailed information about the research papers or the conference. ABI prefers a comprehensive and clear presentation of information to feel confident that she is making progress toward her goal. This page lacks substantial content about what the conference entails and how it aligns with ABI's submission goals, making it difficult for her to know if she is on the right track. Additionally, the extensive list of names without context may overwhelm ABI, given her low computer self-efficacy.</t>
+Why: After clicking on the "Research Papers" link, Abi lands on a page that primarily lists people, likely the committee members or reviewers, without providing immediate, clear information about the research paper submission process or the conference itself. This page does not directly address Abi's goal of finding out what the conference is about. Given Abi's comprehensive information processing style, they would expect to find detailed and relevant information about the conference and the research paper submission process. The lack of immediate, relevant information may cause Abi to feel uncertain about their progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The "Call for Papers" link is located on the right side of the page, but there is no clear indication of what it entails or where it will lead. ABI might hesitate to click on an unfamiliar link without explicit information due to her risk-averse nature and low computer self-efficacy. The page does not provide sufficient guidance or context to make ABI feel confident about taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page Abi is currently on lists people, likely committee members, without providing clear guidance or context about the next steps. Abi might not feel confident in clicking on the "call for papers" link without more explicit instructions or context about what to expect. Given Abi's low computer self-efficacy and preference for process-oriented learning, they might hesitate to click on links without clear indications of what they will find. The page does not provide enough immediate information to guide Abi confidently to the next step.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Call for Papers," ABI lands on a page that provides detailed information about the call for papers, including the topics of interest, submission guidelines, and important dates. This aligns with ABI's motivation to find out what the conference is about and to understand the requirements for paper submission. The comprehensive details on this page cater to ABI's information processing style, allowing her to gather all the necessary information, thereby confirming she is making progress toward her goal.</t>
+Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides detailed information about the call for papers, including topics of interest, submission guidelines, and important dates. This aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. The page offers clear and thorough details, helping Abi feel confident that they are making progress toward their goal of submitting a paper and gathering all the necessary information.</t>
         </is>
       </c>
     </row>
